--- a/daily-reconstructed-data-xlsx/covid-19-23-03-2020.xlsx
+++ b/daily-reconstructed-data-xlsx/covid-19-23-03-2020.xlsx
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" s="2">
         <v>43896</v>
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" s="2">
         <v>43897</v>
@@ -1977,7 +1977,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C90" s="2">
         <v>43898</v>
@@ -1995,7 +1995,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C91" s="2">
         <v>43899</v>
@@ -2013,7 +2013,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C92" s="2">
         <v>43900</v>
@@ -2031,7 +2031,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C93" s="2">
         <v>43901</v>
@@ -2049,7 +2049,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C94" s="2">
         <v>43902</v>
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C95" s="2">
         <v>43903</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C96" s="2">
         <v>43904</v>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C97" s="2">
         <v>43905</v>
@@ -2139,7 +2139,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C99" s="2">
         <v>43907</v>
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C100" s="2">
         <v>43908</v>
@@ -2193,7 +2193,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="C102" s="2">
         <v>43910</v>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="C103" s="2">
         <v>43911</v>
@@ -2247,7 +2247,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="C105" s="2">
         <v>43913</v>
